--- a/8_annexe/4_formulaire-rotation-plan/rotation-plan.xlsx
+++ b/8_annexe/4_formulaire-rotation-plan/rotation-plan.xlsx
@@ -52,9 +52,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,16 +62,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -79,16 +105,153 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:I7"/>
+  <dimension ref="B4:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,77 +543,86 @@
     <col min="8" max="9" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>0.23944499999999999</v>
-      </c>
-      <c r="C7">
-        <v>-0.97090900000000002</v>
-      </c>
-      <c r="D7">
-        <v>1.304E-3</v>
-      </c>
-      <c r="E7">
+    <row r="7" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9">
+        <v>0.243927</v>
+      </c>
+      <c r="C7" s="9">
+        <v>-0.96979000000000004</v>
+      </c>
+      <c r="D7" s="9">
+        <v>-2.565E-3</v>
+      </c>
+      <c r="E7" s="7">
         <f>-C7</f>
-        <v>0.97090900000000002</v>
-      </c>
-      <c r="F7">
+        <v>0.96979000000000004</v>
+      </c>
+      <c r="F7" s="7">
         <f>B7</f>
-        <v>0.23944499999999999</v>
-      </c>
-      <c r="G7">
+        <v>0.243927</v>
+      </c>
+      <c r="G7" s="7">
         <v>0</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="8">
         <f>-ATAN(F7/E7)*180/PI()</f>
-        <v>-13.853798896308374</v>
-      </c>
-      <c r="I7">
+        <v>-14.118481895179169</v>
+      </c>
+      <c r="I7" s="7">
         <f>IF(E7&gt;0,ASIN(D7/(B7^2+C7^2+D7^2)^0.5)*180/PI()-90,PI()/2-ASIN(D7/(B7^2+C7^2+D7^2)^0.5)*180/PI())</f>
-        <v>-89.925286278408009</v>
+        <v>-90.146963864653571</v>
       </c>
     </row>
+    <row r="8" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>